--- a/BOM & info.xlsx
+++ b/BOM & info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a909ac0df12032b6/MSc Robotics/GIC/RobotKinematics-Remote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D14346B-8243-4C44-8E08-9FC21F1A4635}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81633166-8FD2-40A6-8212-0AC4BD29649D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,6 +166,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>68578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCBC209-0862-4A66-9D6C-7814440AE56C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="205740" y="2307145"/>
+          <a:ext cx="5554980" cy="4162233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21238CAD-6B1B-471C-8096-6749459AB4B1}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,6 +591,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -532,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9469C-2C3E-4DDE-A657-7645A26DA7B8}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>

--- a/BOM & info.xlsx
+++ b/BOM & info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a909ac0df12032b6/MSc Robotics/GIC/RobotKinematics-Remote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81633166-8FD2-40A6-8212-0AC4BD29649D}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14840E32-B4CC-4FCF-AA93-48E7078FE03A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
+    <workbookView xWindow="13284" yWindow="2424" windowWidth="17280" windowHeight="8964" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Objective</t>
   </si>
@@ -61,12 +61,6 @@
     <t>5. Compare difficulties</t>
   </si>
   <si>
-    <t>6. (optional) could make an end effector that holds a pen? Depending on the torque the motor can put out, might consider future addition</t>
-  </si>
-  <si>
-    <t>7. (optional) Get them to try using Cartesian space to plan trajectories</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -88,15 +82,6 @@
     <t>Cost/pc</t>
   </si>
   <si>
-    <t>Breakout board</t>
-  </si>
-  <si>
-    <t>Motors</t>
-  </si>
-  <si>
-    <t>Power supply</t>
-  </si>
-  <si>
     <t>1st arm</t>
   </si>
   <si>
@@ -110,6 +95,42 @@
   </si>
   <si>
     <t>*** Needs to be within GBP50</t>
+  </si>
+  <si>
+    <t>Kitronik All-in-one Robotics Board for micro:bit</t>
+  </si>
+  <si>
+    <t>Stepper motors (pending decision)</t>
+  </si>
+  <si>
+    <t>USB lead</t>
+  </si>
+  <si>
+    <t>4 AA battery power supply</t>
+  </si>
+  <si>
+    <t>AA batteries</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Ball Casters</t>
+  </si>
+  <si>
+    <t>https://shop.pimoroni.com/products/pololu-ball-caster-with-3-4-metal-ball?variant=415237741</t>
+  </si>
+  <si>
+    <t>3D print</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>6. (Future) could make an end effector that holds a pen? Depending on the torque the motor can put out, might consider future addition</t>
+  </si>
+  <si>
+    <t>7. (Future) Get them to try using Cartesian space to plan trajectories</t>
   </si>
 </sst>
 </file>
@@ -119,8 +140,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,9 +177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,14 +564,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21238CAD-6B1B-471C-8096-6749459AB4B1}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -550,7 +581,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -581,12 +612,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -597,39 +628,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9469C-2C3E-4DDE-A657-7645A26DA7B8}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -637,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -655,102 +686,203 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1">
+        <f>SUM(E2:E12)</f>
+        <v>23.7</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOM & info.xlsx
+++ b/BOM & info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a909ac0df12032b6/MSc Robotics/GIC/RobotKinematics-Remote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14840E32-B4CC-4FCF-AA93-48E7078FE03A}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{73882FDD-2482-4A7F-8C3D-8268A14EF70A}"/>
   <bookViews>
-    <workbookView xWindow="13284" yWindow="2424" windowWidth="17280" windowHeight="8964" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
+    <workbookView xWindow="5760" yWindow="2424" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={18DF96CA-DCDC-4EB1-9E04-466883AD03F9}</author>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{18DF96CA-DCDC-4EB1-9E04-466883AD03F9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Check on the size</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Objective</t>
   </si>
@@ -100,9 +118,6 @@
     <t>Kitronik All-in-one Robotics Board for micro:bit</t>
   </si>
   <si>
-    <t>Stepper motors (pending decision)</t>
-  </si>
-  <si>
     <t>USB lead</t>
   </si>
   <si>
@@ -131,6 +146,12 @@
   </si>
   <si>
     <t>7. (Future) Get them to try using Cartesian space to plan trajectories</t>
+  </si>
+  <si>
+    <t>Stepper motors FIT0503 - DFRobot</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.uk/product-detail/en/dfrobot/FIT0503/FIT0503-ND/7067735</t>
   </si>
 </sst>
 </file>
@@ -140,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +176,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,6 +290,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Samantha Hoh" id="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" userId="a909ac0df12032b6" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,11 +593,19 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F8" dT="2020-12-27T22:21:16.94" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{18DF96CA-DCDC-4EB1-9E04-466883AD03F9}">
+    <text>Check on the size</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21238CAD-6B1B-471C-8096-6749459AB4B1}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -612,12 +653,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -627,11 +668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9469C-2C3E-4DDE-A657-7645A26DA7B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9469C-2C3E-4DDE-A657-7645A26DA7B8}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,17 +743,20 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>5.31</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10.62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -720,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -736,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -752,7 +796,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -768,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -781,7 +825,7 @@
         <v>4.2</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -800,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -819,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -838,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -857,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -865,11 +909,11 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1">
         <f>SUM(E2:E12)</f>
-        <v>23.7</v>
+        <v>28.319999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -887,5 +931,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BOM & info.xlsx
+++ b/BOM & info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a909ac0df12032b6/MSc Robotics/GIC/RobotKinematics-Remote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{73882FDD-2482-4A7F-8C3D-8268A14EF70A}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDA3BF84-A4D3-4D8E-91EB-17EC01C5B9B1}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2424" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>Ball Casters</t>
   </si>
   <si>
-    <t>https://shop.pimoroni.com/products/pololu-ball-caster-with-3-4-metal-ball?variant=415237741</t>
-  </si>
-  <si>
     <t>3D print</t>
   </si>
   <si>
@@ -151,7 +148,10 @@
     <t>Stepper motors FIT0503 - DFRobot</t>
   </si>
   <si>
-    <t>https://www.digikey.co.uk/product-detail/en/dfrobot/FIT0503/FIT0503-ND/7067735</t>
+    <t>https://www.dfrobot.com/product-509.html</t>
+  </si>
+  <si>
+    <t>https://www.dfrobot.com/product-1508.html</t>
   </si>
 </sst>
 </file>
@@ -178,10 +178,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,16 +203,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -653,12 +658,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +677,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -755,7 +760,7 @@
         <f t="shared" si="0"/>
         <v>10.62</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -824,8 +829,8 @@
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="F8" t="s">
-        <v>26</v>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -844,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -863,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -882,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -901,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">

--- a/BOM & info.xlsx
+++ b/BOM & info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a909ac0df12032b6/MSc Robotics/GIC/RobotKinematics-Remote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDA3BF84-A4D3-4D8E-91EB-17EC01C5B9B1}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D88E256C-FA6A-4E79-95B2-7F2E15C4E320}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Objective</t>
   </si>
@@ -130,9 +130,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Ball Casters</t>
-  </si>
-  <si>
     <t>3D print</t>
   </si>
   <si>
@@ -148,10 +145,16 @@
     <t>Stepper motors FIT0503 - DFRobot</t>
   </si>
   <si>
-    <t>https://www.dfrobot.com/product-509.html</t>
-  </si>
-  <si>
-    <t>https://www.dfrobot.com/product-1508.html</t>
+    <t>https://shop.pimoroni.com/products/pololu-ball-caster-with-3-4-metal-ball?variant=415237741</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.uk/product-detail/en/dfrobot/FIT0503/FIT0503-ND/7067735</t>
+  </si>
+  <si>
+    <t>Ball Casters 1/2"</t>
+  </si>
+  <si>
+    <t>https://www.rapidonline.com/Pololu-953-Ball-Caster-1-2-Inch-Includes-Two-Spacers-2-Screw-Sets-75-0628?clickref=52825428&amp;IncVat=1&amp;utm_source=AffWin&amp;utm_medium=Affiliate&amp;awc=1799_1610207738_31f52f4fdca15da76236c6bddf54cdd8</t>
   </si>
 </sst>
 </file>
@@ -658,12 +661,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +680,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -761,7 +764,7 @@
         <v>10.62</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -817,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -830,7 +833,10 @@
         <v>4.2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -849,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -868,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -906,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">

--- a/BOM & info.xlsx
+++ b/BOM & info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a909ac0df12032b6/MSc Robotics/GIC/RobotKinematics-Remote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D88E256C-FA6A-4E79-95B2-7F2E15C4E320}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{874247D2-E5BC-4385-B241-538757524E7B}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,6 +279,67 @@
         <a:xfrm>
           <a:off x="205740" y="2307145"/>
           <a:ext cx="5554980" cy="4162233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C9E95D-B839-4EC8-97C8-8E84E32EF6D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="6797040"/>
+          <a:ext cx="5951220" cy="7932420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21238CAD-6B1B-471C-8096-6749459AB4B1}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9469C-2C3E-4DDE-A657-7645A26DA7B8}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/BOM & info.xlsx
+++ b/BOM & info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a909ac0df12032b6/MSc Robotics/GIC/RobotKinematics-Remote/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\MSc Robotics\GIC\RobotKinematics-Remote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{81686523-6045-434A-8F1A-1DA700BE3ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{874247D2-E5BC-4385-B241-538757524E7B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A264909-6B67-43A2-8235-BE40611A2310}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Check on the size</t>
+    Check on the size
+Reply:
+    get the 1/2in</t>
       </text>
     </comment>
   </commentList>
@@ -667,6 +669,9 @@
   <threadedComment ref="F8" dT="2020-12-27T22:21:16.94" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{18DF96CA-DCDC-4EB1-9E04-466883AD03F9}">
     <text>Check on the size</text>
   </threadedComment>
+  <threadedComment ref="F8" dT="2021-01-17T20:43:49.75" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{5704A47C-17FE-405A-A170-F2D5DE2CD051}" parentId="{18DF96CA-DCDC-4EB1-9E04-466883AD03F9}">
+    <text>get the 1/2in</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -674,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21238CAD-6B1B-471C-8096-6749459AB4B1}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
@@ -740,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9469C-2C3E-4DDE-A657-7645A26DA7B8}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,8 +1006,11 @@
       <c r="D18" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{ABF0697A-34A5-40E8-9638-4C118E8829DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/BOM & info.xlsx
+++ b/BOM & info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\MSc Robotics\GIC\RobotKinematics-Remote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A264909-6B67-43A2-8235-BE40611A2310}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A4D513-B773-444B-A31F-DDE03E602916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
   </bookViews>
@@ -37,17 +37,61 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={18DF96CA-DCDC-4EB1-9E04-466883AD03F9}</author>
+    <author>tc={E7FB7D4C-FA99-4659-9CC0-0C919C9D5F01}</author>
+    <author>tc={17BCF766-ABB2-4350-A0A7-725336BADFCE}</author>
+    <author>tc={1869C771-C580-41CE-9D3C-793B204B87D5}</author>
+    <author>tc={58F8599A-228D-4E1E-90E9-143A66688545}</author>
+    <author>tc={22C3FD05-C2BC-4ACA-B1F4-D6737862311B}</author>
+    <author>tc={88774207-C78B-40C9-8E79-3CBBD29570AA}</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{18DF96CA-DCDC-4EB1-9E04-466883AD03F9}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{E7FB7D4C-FA99-4659-9CC0-0C919C9D5F01}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Check on the size
-Reply:
-    get the 1/2in</t>
+    Please buy 35 for 12 sets + extra</t>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="1" shapeId="0" xr:uid="{17BCF766-ABB2-4350-A0A7-725336BADFCE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Get 15 pcs of 1/2 inches, if no stock, use the next URL on the right = total 14 pcs for 12 sets + extra</t>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="2" shapeId="0" xr:uid="{1869C771-C580-41CE-9D3C-793B204B87D5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    buy 4 packs of 8 pcs at GBP 3.99 each pack
+= total 32 pcs for 12 sets + extra</t>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="3" shapeId="0" xr:uid="{58F8599A-228D-4E1E-90E9-143A66688545}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    8 with the bolts, need 1 extra. Buy M3 nuts, 50pcs at GBP1.29 for 12 sets plus extra</t>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="4" shapeId="0" xr:uid="{22C3FD05-C2BC-4ACA-B1F4-D6737862311B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    buy M3 x 6 with nuts, 2x 100pcs at GBP7.42 each = 200 pcs for 12 sets + extra</t>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="5" shapeId="0" xr:uid="{88774207-C78B-40C9-8E79-3CBBD29570AA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    buy 100 pcs for GBP 6.85, for 12 sets + extra</t>
       </text>
     </comment>
   </commentList>
@@ -55,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Objective</t>
   </si>
@@ -84,9 +128,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Qty</t>
-  </si>
-  <si>
     <t>Total Cost</t>
   </si>
   <si>
@@ -135,9 +176,6 @@
     <t>3D print</t>
   </si>
   <si>
-    <t>print</t>
-  </si>
-  <si>
     <t>6. (Future) could make an end effector that holds a pen? Depending on the torque the motor can put out, might consider future addition</t>
   </si>
   <si>
@@ -157,6 +195,57 @@
   </si>
   <si>
     <t>https://www.rapidonline.com/Pololu-953-Ball-Caster-1-2-Inch-Includes-Two-Spacers-2-Screw-Sets-75-0628?clickref=52825428&amp;IncVat=1&amp;utm_source=AffWin&amp;utm_medium=Affiliate&amp;awc=1799_1610207738_31f52f4fdca15da76236c6bddf54cdd8</t>
+  </si>
+  <si>
+    <t>Bearing Holder</t>
+  </si>
+  <si>
+    <t>Motor Mount</t>
+  </si>
+  <si>
+    <t>Shaft Attachment</t>
+  </si>
+  <si>
+    <t>608ZZ Ball Bearing</t>
+  </si>
+  <si>
+    <t>print/laminate</t>
+  </si>
+  <si>
+    <t>Ball Caster mount</t>
+  </si>
+  <si>
+    <t>M3 nut</t>
+  </si>
+  <si>
+    <t>M3 x 6 Countersunk</t>
+  </si>
+  <si>
+    <t>M1.6 x 4 Countersunk</t>
+  </si>
+  <si>
+    <t>Jumper cables</t>
+  </si>
+  <si>
+    <t>PCB extensions</t>
+  </si>
+  <si>
+    <t>https://www.ebay.co.uk/itm/M1-6-M2-M2-5-POZI-COUNTERSUNK-MACHINE-SCREWS-A2-STAINLESS-STEEL-POSIDRIVE-BOLTS/362984625333?hash=item548391d4b5:g:N8kAAOSwE3NerWOr</t>
+  </si>
+  <si>
+    <t>https://www.ebay.co.uk/itm/M2-5-M3-M4-POZI-COUNTERSUNK-MACHINE-SCREWS-WITH-NUTS-ZINC-PLATED-BZP-CSK-BOLTS/183870828562?hash=item2acf8e3012:g:dYEAAOSwLUldHkh7</t>
+  </si>
+  <si>
+    <t>https://www.ebay.co.uk/itm/HEXAGON-FULL-NUTS-TO-FIT-METRIC-COARSE-PITCH-BOLTS-SCREWS-A2-STAINLESS-STEEL/180963079545?hash=item2a223d7579:g:AE0AAOSwqOFb0u80</t>
+  </si>
+  <si>
+    <t>https://www.ebay.co.uk/itm/8-Pack-608zz-Roller-Skate-Scooter-Skateboard-Wheels-Double-Shielded-Bearings-UK/363194481518?_trkparms=ispr%3D1&amp;hash=item549013fb6e:g:FuYAAOSwkK5fviHV&amp;amdata=enc%3AAQAFAAACcBaobrjLl8XobRIiIML1V4Imu%252Fn%252BzU5L90Z278x5ickkBSh1VzQSTzkTiSV5EE%252FHQWWEHJkkKpjo09ZE0lEJ3Qi5Rqj1yDG4QGk4xXb8iEh3Bi8GUzBk18wFjp1Di5JfkQ8%252Bj2t2qoQSBs2ZRxbSFmpShSUjBLTA%252FAfmC8OaERIZgkVVzAvBBFeMYW5QkBVFg74%252Fz1Ki%252FlgLJSyws4Ny4aEP%252FqjJK0ykr5qcvJ1gb4btEBstA6SgomD9szUwT4rNAjMuiHkS3VGZRd5Vpqm3GkKHhVZkNbMRFeqceIHN5mkdTUYBmdRE4KMmhy5X2QT11A5bfhtrnIYfgZrLjv89nVWzAyNY0HWmEvNmw8wh3e3%252B7DmBYZQVrepwjJpnq7fyKtCZ4LAKaVo8oLuXP%252BpStH0zZShntDlzA0ax9Br2R16KwqPofcxq5USAX6LQcvoe3YRqDPy7l0pbTpRgg7q3x%252BBOsA94r1qBoWphH28gn1bCyRAvzRUyS32Rf1KYWXPvV5VSqnkDlrA74K18W4fXmYzv5PljXkE2rdhTtIud%252FrsK7%252FIBpgVHdCQdkszAedG%252BGkiHJVzHumA63BJZroJuAXiTjOhqxXZMgGRDFB%252FOWrGr6zzms9TP8ul0sBH6SZY%252F2XT%252B%252F4%252FR%252Fz18sIX8fkqKctOZrrJXQn6CmBfHxB5z8AUupFmCOncWao9BKfshIqpZ0avzmyqNT0xwyb6sYJdIqaCqNCDCsC1DLqLE5hFn3%252Bb8PaDSrX%252Bru10n1A6pERob4Em5N9yr%252FJGJLS%252FE9zHYcWLg8U6WJeoasymbQ0Tpc4i5SPxM3kaBumKV2kH0%252Bsl9rA%253D%253D%7Ccksum%3A363194481518319458494b184b6b80b531f48d292915%7Campid%3APL_CLK%7Cclp%3A2334524</t>
+  </si>
+  <si>
+    <t>Whiteboard marker</t>
+  </si>
+  <si>
+    <t>Qty for 1 set</t>
   </si>
 </sst>
 </file>
@@ -166,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +278,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -666,11 +761,24 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F8" dT="2020-12-27T22:21:16.94" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{18DF96CA-DCDC-4EB1-9E04-466883AD03F9}">
-    <text>Check on the size</text>
+  <threadedComment ref="F4" dT="2021-01-27T21:52:24.17" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{E7FB7D4C-FA99-4659-9CC0-0C919C9D5F01}">
+    <text>Please buy 35 for 12 sets + extra</text>
   </threadedComment>
-  <threadedComment ref="F8" dT="2021-01-17T20:43:49.75" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{5704A47C-17FE-405A-A170-F2D5DE2CD051}" parentId="{18DF96CA-DCDC-4EB1-9E04-466883AD03F9}">
-    <text>get the 1/2in</text>
+  <threadedComment ref="F8" dT="2021-01-27T21:45:59.50" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{17BCF766-ABB2-4350-A0A7-725336BADFCE}">
+    <text>Get 15 pcs of 1/2 inches, if no stock, use the next URL on the right = total 14 pcs for 12 sets + extra</text>
+  </threadedComment>
+  <threadedComment ref="F13" dT="2021-01-27T21:43:53.49" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{1869C771-C580-41CE-9D3C-793B204B87D5}">
+    <text>buy 4 packs of 8 pcs at GBP 3.99 each pack
+= total 32 pcs for 12 sets + extra</text>
+  </threadedComment>
+  <threadedComment ref="F19" dT="2021-01-27T21:40:23.79" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{58F8599A-228D-4E1E-90E9-143A66688545}">
+    <text>8 with the bolts, need 1 extra. Buy M3 nuts, 50pcs at GBP1.29 for 12 sets plus extra</text>
+  </threadedComment>
+  <threadedComment ref="F20" dT="2021-01-27T21:12:06.89" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{22C3FD05-C2BC-4ACA-B1F4-D6737862311B}">
+    <text>buy M3 x 6 with nuts, 2x 100pcs at GBP7.42 each = 200 pcs for 12 sets + extra</text>
+  </threadedComment>
+  <threadedComment ref="F21" dT="2021-01-27T21:04:27.32" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{88774207-C78B-40C9-8E79-3CBBD29570AA}">
+    <text>buy 100 pcs for GBP 6.85, for 12 sets + extra</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -680,7 +788,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,12 +835,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -743,39 +851,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9469C-2C3E-4DDE-A657-7645A26DA7B8}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -783,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -801,14 +911,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E23" si="0">C3*D3</f>
         <v>0</v>
       </c>
     </row>
@@ -817,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -830,7 +940,7 @@
         <v>10.62</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -838,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -854,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -870,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -886,31 +996,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>2.1</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -921,18 +1031,18 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -940,15 +1050,15 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -959,18 +1069,18 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -978,32 +1088,233 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D14" s="2" t="s">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="1">
-        <f>SUM(E2:E12)</f>
-        <v>28.319999999999997</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1">
+        <f>SUM(E2:E21)</f>
+        <v>27.087599999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/BOM & info.xlsx
+++ b/BOM & info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\MSc Robotics\GIC\RobotKinematics-Remote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A4D513-B773-444B-A31F-DDE03E602916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B369FA-BBF1-42DA-8391-C9E1662374BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C8753E82-3F15-457C-882E-D25984A5423B}"/>
   </bookViews>
@@ -50,7 +50,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Please buy 35 for 12 sets + extra</t>
+    Please buy 30 for 12 sets + extra</t>
       </text>
     </comment>
     <comment ref="F8" authorId="1" shapeId="0" xr:uid="{17BCF766-ABB2-4350-A0A7-725336BADFCE}">
@@ -70,7 +70,7 @@
 = total 32 pcs for 12 sets + extra</t>
       </text>
     </comment>
-    <comment ref="F19" authorId="3" shapeId="0" xr:uid="{58F8599A-228D-4E1E-90E9-143A66688545}">
+    <comment ref="F20" authorId="3" shapeId="0" xr:uid="{58F8599A-228D-4E1E-90E9-143A66688545}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +78,7 @@
     8 with the bolts, need 1 extra. Buy M3 nuts, 50pcs at GBP1.29 for 12 sets plus extra</t>
       </text>
     </comment>
-    <comment ref="F20" authorId="4" shapeId="0" xr:uid="{22C3FD05-C2BC-4ACA-B1F4-D6737862311B}">
+    <comment ref="F21" authorId="4" shapeId="0" xr:uid="{22C3FD05-C2BC-4ACA-B1F4-D6737862311B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,7 +86,7 @@
     buy M3 x 6 with nuts, 2x 100pcs at GBP7.42 each = 200 pcs for 12 sets + extra</t>
       </text>
     </comment>
-    <comment ref="F21" authorId="5" shapeId="0" xr:uid="{88774207-C78B-40C9-8E79-3CBBD29570AA}">
+    <comment ref="F22" authorId="5" shapeId="0" xr:uid="{88774207-C78B-40C9-8E79-3CBBD29570AA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Objective</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>Qty for 1 set</t>
+  </si>
+  <si>
+    <t>M3 bolt</t>
+  </si>
+  <si>
+    <t>Philips screwdriver</t>
+  </si>
+  <si>
+    <t>Flat screwdriver</t>
   </si>
 </sst>
 </file>
@@ -255,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,12 +287,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -762,7 +765,7 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="F4" dT="2021-01-27T21:52:24.17" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{E7FB7D4C-FA99-4659-9CC0-0C919C9D5F01}">
-    <text>Please buy 35 for 12 sets + extra</text>
+    <text>Please buy 30 for 12 sets + extra</text>
   </threadedComment>
   <threadedComment ref="F8" dT="2021-01-27T21:45:59.50" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{17BCF766-ABB2-4350-A0A7-725336BADFCE}">
     <text>Get 15 pcs of 1/2 inches, if no stock, use the next URL on the right = total 14 pcs for 12 sets + extra</text>
@@ -771,13 +774,13 @@
     <text>buy 4 packs of 8 pcs at GBP 3.99 each pack
 = total 32 pcs for 12 sets + extra</text>
   </threadedComment>
-  <threadedComment ref="F19" dT="2021-01-27T21:40:23.79" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{58F8599A-228D-4E1E-90E9-143A66688545}">
+  <threadedComment ref="F20" dT="2021-01-27T21:40:23.79" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{58F8599A-228D-4E1E-90E9-143A66688545}">
     <text>8 with the bolts, need 1 extra. Buy M3 nuts, 50pcs at GBP1.29 for 12 sets plus extra</text>
   </threadedComment>
-  <threadedComment ref="F20" dT="2021-01-27T21:12:06.89" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{22C3FD05-C2BC-4ACA-B1F4-D6737862311B}">
+  <threadedComment ref="F21" dT="2021-01-27T21:12:06.89" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{22C3FD05-C2BC-4ACA-B1F4-D6737862311B}">
     <text>buy M3 x 6 with nuts, 2x 100pcs at GBP7.42 each = 200 pcs for 12 sets + extra</text>
   </threadedComment>
-  <threadedComment ref="F21" dT="2021-01-27T21:04:27.32" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{88774207-C78B-40C9-8E79-3CBBD29570AA}">
+  <threadedComment ref="F22" dT="2021-01-27T21:04:27.32" personId="{E59E69DB-0CAD-4A6E-A5B6-2A6254EA60D8}" id="{88774207-C78B-40C9-8E79-3CBBD29570AA}">
     <text>buy 100 pcs for GBP 6.85, for 12 sets + extra</text>
   </threadedComment>
 </ThreadedComments>
@@ -851,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9469C-2C3E-4DDE-A657-7645A26DA7B8}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,7 +921,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E23" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E26" si="0">C3*D3</f>
         <v>0</v>
       </c>
     </row>
@@ -1203,91 +1206,88 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7.4200000000000002E-2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>0.59360000000000002</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1">
-        <v>6.8500000000000005E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>0.27400000000000002</v>
+        <v>0.59360000000000002</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6.8500000000000005E-2</v>
+      </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
@@ -1296,25 +1296,67 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="2" t="s">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="1">
-        <f>SUM(E2:E21)</f>
+      <c r="E27" s="1">
+        <f>SUM(E2:E22)</f>
         <v>27.087599999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
